--- a/Code/Results/Cases/Case_2_255/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_255/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.22996821806358</v>
+        <v>12.90258951017826</v>
       </c>
       <c r="C2">
-        <v>6.411896026583999</v>
+        <v>8.765811693360169</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.11319301826583</v>
+        <v>15.3704130336887</v>
       </c>
       <c r="F2">
-        <v>27.40209470296868</v>
+        <v>39.46161740653699</v>
       </c>
       <c r="G2">
-        <v>2.114859800728125</v>
+        <v>3.6727954155914</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.48887509324693</v>
+        <v>26.5361954024308</v>
       </c>
       <c r="J2">
-        <v>5.706196647908814</v>
+        <v>8.350327027231986</v>
       </c>
       <c r="K2">
-        <v>11.28914179052518</v>
+        <v>9.56381890483544</v>
       </c>
       <c r="L2">
-        <v>8.527240823632848</v>
+        <v>12.45658811191793</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.58249677032119</v>
+        <v>26.33011577458971</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.27798611779798</v>
+        <v>12.63982079858845</v>
       </c>
       <c r="C3">
-        <v>6.388225987620435</v>
+        <v>8.76215732473</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.872609265122451</v>
+        <v>15.36268560497533</v>
       </c>
       <c r="F3">
-        <v>26.96522827960215</v>
+        <v>39.51074005399009</v>
       </c>
       <c r="G3">
-        <v>2.119451812584235</v>
+        <v>3.67450500554647</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.71189991870056</v>
+        <v>26.64713912378761</v>
       </c>
       <c r="J3">
-        <v>5.690352680984669</v>
+        <v>8.346808597540042</v>
       </c>
       <c r="K3">
-        <v>10.6533543204104</v>
+        <v>9.382713505093147</v>
       </c>
       <c r="L3">
-        <v>8.24854312029499</v>
+        <v>12.43058558535039</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.74611139274931</v>
+        <v>26.43619226736916</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.65853301036473</v>
+        <v>12.4773962439341</v>
       </c>
       <c r="C4">
-        <v>6.374210583906467</v>
+        <v>8.76011552084781</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.726376717525351</v>
+        <v>15.36019872198642</v>
       </c>
       <c r="F4">
-        <v>26.71491729612312</v>
+        <v>39.54968857524139</v>
       </c>
       <c r="G4">
-        <v>2.122358817394005</v>
+        <v>3.675610278513336</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>16.85963074345192</v>
+        <v>26.71983979859319</v>
       </c>
       <c r="J4">
-        <v>5.680841521847258</v>
+        <v>8.344741556295403</v>
       </c>
       <c r="K4">
-        <v>10.24284654841109</v>
+        <v>9.270802397242415</v>
       </c>
       <c r="L4">
-        <v>8.075829212238588</v>
+        <v>12.4163171672956</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.85924967075436</v>
+        <v>26.50628634793635</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.39726985731184</v>
+        <v>12.41102263467561</v>
       </c>
       <c r="C5">
-        <v>6.36862734075155</v>
+        <v>8.759334664144539</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.667234120977717</v>
+        <v>15.35975524528305</v>
       </c>
       <c r="F5">
-        <v>26.61743915801321</v>
+        <v>39.56776805884027</v>
       </c>
       <c r="G5">
-        <v>2.123565919449302</v>
+        <v>3.676074704634876</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>16.9224548242493</v>
+        <v>26.7506180181749</v>
       </c>
       <c r="J5">
-        <v>5.677020739932578</v>
+        <v>8.343922888099225</v>
       </c>
       <c r="K5">
-        <v>10.07055667368159</v>
+        <v>9.225075879816231</v>
       </c>
       <c r="L5">
-        <v>8.005147164120583</v>
+        <v>12.41093350547315</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.90841375042405</v>
+        <v>26.53609729564045</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.35335258567681</v>
+        <v>12.39999284297545</v>
       </c>
       <c r="C6">
-        <v>6.367707928189542</v>
+        <v>8.759208107267304</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.657442815834457</v>
+        <v>15.35971608957903</v>
       </c>
       <c r="F6">
-        <v>26.60152655347041</v>
+        <v>39.57090340838003</v>
       </c>
       <c r="G6">
-        <v>2.123767728695768</v>
+        <v>3.676152670178733</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>16.93304257743745</v>
+        <v>26.75579830981956</v>
       </c>
       <c r="J6">
-        <v>5.676389643329486</v>
+        <v>8.343788384446594</v>
       </c>
       <c r="K6">
-        <v>10.04164783350648</v>
+        <v>9.21747736460501</v>
       </c>
       <c r="L6">
-        <v>7.993395447544338</v>
+        <v>12.4100656864002</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.91675855255381</v>
+        <v>26.54112267404948</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.65504534213146</v>
+        <v>12.47650173403518</v>
       </c>
       <c r="C7">
-        <v>6.374134770163183</v>
+        <v>8.760104782121914</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.72557718512695</v>
+        <v>15.36019043066204</v>
       </c>
       <c r="F7">
-        <v>26.71358433505913</v>
+        <v>39.54992346592975</v>
       </c>
       <c r="G7">
-        <v>2.122375005184953</v>
+        <v>3.675616485109508</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>16.86046750771912</v>
+        <v>26.72025021927842</v>
       </c>
       <c r="J7">
-        <v>5.680789769745139</v>
+        <v>8.34473041934605</v>
       </c>
       <c r="K7">
-        <v>10.24054316162941</v>
+        <v>9.270186130234379</v>
       </c>
       <c r="L7">
-        <v>8.074877044511382</v>
+        <v>12.41624281178436</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.85990049267039</v>
+        <v>26.50668334072545</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.90894632558588</v>
+        <v>12.81226381200265</v>
       </c>
       <c r="C8">
-        <v>6.403625719915117</v>
+        <v>8.764509983572252</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.02997535676899</v>
+        <v>15.36728140535745</v>
       </c>
       <c r="F8">
-        <v>27.2477574176384</v>
+        <v>39.47673021596179</v>
       </c>
       <c r="G8">
-        <v>2.116425259305284</v>
+        <v>3.673373372913299</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>16.56347682587921</v>
+        <v>26.57349819153129</v>
       </c>
       <c r="J8">
-        <v>5.700688897378204</v>
+        <v>8.349094635771017</v>
       </c>
       <c r="K8">
-        <v>11.07412999508863</v>
+        <v>9.501555275493599</v>
       </c>
       <c r="L8">
-        <v>8.431534402382258</v>
+        <v>12.44727269320262</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.63620011357641</v>
+        <v>26.36566042281178</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.09284609908462</v>
+        <v>13.45836709505537</v>
       </c>
       <c r="C9">
-        <v>6.465677842165107</v>
+        <v>8.774734248425704</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.63552903305484</v>
+        <v>15.39899580354193</v>
       </c>
       <c r="F9">
-        <v>28.43610646994503</v>
+        <v>39.40297621254455</v>
       </c>
       <c r="G9">
-        <v>2.105429480622984</v>
+        <v>3.669413660258605</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>16.07120368450558</v>
+        <v>26.32205378174618</v>
       </c>
       <c r="J9">
-        <v>5.741411558890529</v>
+        <v>8.358384274812641</v>
       </c>
       <c r="K9">
-        <v>12.54733879635693</v>
+        <v>9.947195627131135</v>
       </c>
       <c r="L9">
-        <v>9.114287493824719</v>
+        <v>12.52139979916696</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.30425374509478</v>
+        <v>26.12853024589825</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.53280203835159</v>
+        <v>13.92079574732447</v>
       </c>
       <c r="C10">
-        <v>6.514014793394848</v>
+        <v>8.783190692005906</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.08167674044811</v>
+        <v>15.43299920550884</v>
       </c>
       <c r="F10">
-        <v>29.39250296430625</v>
+        <v>39.39136150489407</v>
       </c>
       <c r="G10">
-        <v>2.097727193167911</v>
+        <v>3.666769349698653</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.77129761808422</v>
+        <v>26.15945403648488</v>
       </c>
       <c r="J10">
-        <v>5.77233752207212</v>
+        <v>8.365644102494374</v>
       </c>
       <c r="K10">
-        <v>13.52993434949607</v>
+        <v>10.26657523131038</v>
       </c>
       <c r="L10">
-        <v>9.600990698179206</v>
+        <v>12.58368560823891</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.13441490774467</v>
+        <v>25.97839214309356</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.15283145473865</v>
+        <v>14.12757740055507</v>
       </c>
       <c r="C11">
-        <v>6.536645201613946</v>
+        <v>8.787238199909526</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.28414492604278</v>
+        <v>15.45075437707397</v>
       </c>
       <c r="F11">
-        <v>29.84500354935518</v>
+        <v>39.39531179593273</v>
       </c>
       <c r="G11">
-        <v>2.094297180182041</v>
+        <v>3.665623317827438</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.64996153972372</v>
+        <v>26.09028761069463</v>
       </c>
       <c r="J11">
-        <v>5.786618150705941</v>
+        <v>8.36903879806181</v>
       </c>
       <c r="K11">
-        <v>13.95521184070397</v>
+        <v>10.40951308248613</v>
       </c>
       <c r="L11">
-        <v>9.818336123077007</v>
+        <v>12.61365684661879</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.07532914546676</v>
+        <v>25.9153313110757</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.38264239625117</v>
+        <v>14.20529420850412</v>
       </c>
       <c r="C12">
-        <v>6.545311045003595</v>
+        <v>8.788799317163992</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.36068699570746</v>
+        <v>15.45780298257003</v>
       </c>
       <c r="F12">
-        <v>30.01879773811031</v>
+        <v>39.39813302147001</v>
       </c>
       <c r="G12">
-        <v>2.093008260268683</v>
+        <v>3.665197480232642</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.60634105004651</v>
+        <v>26.0647865020483</v>
       </c>
       <c r="J12">
-        <v>5.792055648742924</v>
+        <v>8.370337311871893</v>
       </c>
       <c r="K12">
-        <v>14.11313589104846</v>
+        <v>10.4632545554808</v>
       </c>
       <c r="L12">
-        <v>9.899998078517486</v>
+        <v>12.62523577199169</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.05575329888877</v>
+        <v>25.89220611855012</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.33336913843628</v>
+        <v>14.18858370668239</v>
       </c>
       <c r="C13">
-        <v>6.543440354870146</v>
+        <v>8.78846184589869</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.34420886257697</v>
+        <v>15.45627054224488</v>
       </c>
       <c r="F13">
-        <v>29.98126045605681</v>
+        <v>39.39746652482999</v>
       </c>
       <c r="G13">
-        <v>2.09328542058456</v>
+        <v>3.665288830578938</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.61562938260147</v>
+        <v>26.07024789649609</v>
       </c>
       <c r="J13">
-        <v>5.790883276855497</v>
+        <v>8.370057078587067</v>
       </c>
       <c r="K13">
-        <v>14.07926273747472</v>
+        <v>10.45169827086404</v>
       </c>
       <c r="L13">
-        <v>9.882440110135615</v>
+        <v>12.62273193500802</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.05984179928618</v>
+        <v>25.89715296016968</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.1718376448108</v>
+        <v>14.13398336878862</v>
       </c>
       <c r="C14">
-        <v>6.537356193740631</v>
+        <v>8.787366067019956</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.2904449719712</v>
+        <v>15.45132777676773</v>
       </c>
       <c r="F14">
-        <v>29.85925312609739</v>
+        <v>39.3955173556752</v>
       </c>
       <c r="G14">
-        <v>2.094190944447602</v>
+        <v>3.665588121002057</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.64632527878706</v>
+        <v>26.08817577409135</v>
       </c>
       <c r="J14">
-        <v>5.787064905703768</v>
+        <v>8.369145368075358</v>
       </c>
       <c r="K14">
-        <v>13.96826682311718</v>
+        <v>10.41394242721775</v>
       </c>
       <c r="L14">
-        <v>9.825067673181271</v>
+        <v>12.61460488787368</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.07366144919587</v>
+        <v>25.91341365669565</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.07224793569966</v>
+        <v>14.10046058812011</v>
       </c>
       <c r="C15">
-        <v>6.533642121286855</v>
+        <v>8.786698558136116</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.25749470284726</v>
+        <v>15.44834241348843</v>
       </c>
       <c r="F15">
-        <v>29.78483623761837</v>
+        <v>39.39449594160066</v>
       </c>
       <c r="G15">
-        <v>2.094746879661861</v>
+        <v>3.66577250391156</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.66543529618371</v>
+        <v>26.09924707904856</v>
       </c>
       <c r="J15">
-        <v>5.784729891205044</v>
+        <v>8.368588607089121</v>
       </c>
       <c r="K15">
-        <v>13.89987259218114</v>
+        <v>10.39076423552381</v>
       </c>
       <c r="L15">
-        <v>9.789840197532067</v>
+        <v>12.60965653944958</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.08249648970255</v>
+        <v>25.92347211257658</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.49158168953042</v>
+        <v>13.90720377493565</v>
       </c>
       <c r="C16">
-        <v>6.512549081070914</v>
+        <v>8.782930177784575</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.06843006883018</v>
+        <v>15.4318845667513</v>
       </c>
       <c r="F16">
-        <v>29.36327621923275</v>
+        <v>39.3912889621068</v>
       </c>
       <c r="G16">
-        <v>2.097952782023942</v>
+        <v>3.666845386751537</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.77954400406922</v>
+        <v>26.16407086146099</v>
       </c>
       <c r="J16">
-        <v>5.771408454164647</v>
+        <v>8.365424085550883</v>
       </c>
       <c r="K16">
-        <v>13.50170465884411</v>
+        <v>10.25718244943611</v>
       </c>
       <c r="L16">
-        <v>9.586699806471929</v>
+        <v>12.58175935776909</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.13865765661584</v>
+        <v>25.98261883241341</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.1264319769866</v>
+        <v>13.78767736084741</v>
       </c>
       <c r="C17">
-        <v>6.499776193733388</v>
+        <v>8.780669474921366</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.95227719820931</v>
+        <v>15.42237134876687</v>
       </c>
       <c r="F17">
-        <v>29.10908138295695</v>
+        <v>39.39168512806954</v>
       </c>
       <c r="G17">
-        <v>2.099937942995771</v>
+        <v>3.667518105500418</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.8535188839006</v>
+        <v>26.20506803236177</v>
       </c>
       <c r="J17">
-        <v>5.76329000086319</v>
+        <v>8.363506191869613</v>
       </c>
       <c r="K17">
-        <v>13.25188056840484</v>
+        <v>10.1745974438984</v>
       </c>
       <c r="L17">
-        <v>9.460995997189123</v>
+        <v>12.56506049567223</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.17789473672066</v>
+        <v>26.02024592817591</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.91310852816544</v>
+        <v>13.71859604003634</v>
       </c>
       <c r="C18">
-        <v>6.492489705692417</v>
+        <v>8.77938808890422</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.88542648108092</v>
+        <v>15.4171150867921</v>
       </c>
       <c r="F18">
-        <v>28.96451987938845</v>
+        <v>39.39278233582862</v>
       </c>
       <c r="G18">
-        <v>2.101086742964509</v>
+        <v>3.667910391507417</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.89747772436713</v>
+        <v>26.2291003920303</v>
       </c>
       <c r="J18">
-        <v>5.758640509445851</v>
+        <v>8.362411759353019</v>
       </c>
       <c r="K18">
-        <v>13.10614424869273</v>
+        <v>10.1268782866441</v>
       </c>
       <c r="L18">
-        <v>9.388315445564533</v>
+        <v>12.55561021726667</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.20216194798381</v>
+        <v>26.04238095515007</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.84031264221377</v>
+        <v>13.69515139339704</v>
       </c>
       <c r="C19">
-        <v>6.490032842336007</v>
+        <v>8.778957494753948</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.86278651611962</v>
+        <v>15.41537252710046</v>
       </c>
       <c r="F19">
-        <v>28.9158582764069</v>
+        <v>39.39330320268728</v>
       </c>
       <c r="G19">
-        <v>2.101476926539123</v>
+        <v>3.668044133903807</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.91259912029174</v>
+        <v>26.23731493591138</v>
       </c>
       <c r="J19">
-        <v>5.75706973466986</v>
+        <v>8.362042702854238</v>
       </c>
       <c r="K19">
-        <v>13.05644939647496</v>
+        <v>10.11068539411916</v>
       </c>
       <c r="L19">
-        <v>9.363643880490196</v>
+        <v>12.55243722188811</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.21066472557747</v>
+        <v>26.04996011167111</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.16564383255574</v>
+        <v>13.80043614208367</v>
       </c>
       <c r="C20">
-        <v>6.501129638189042</v>
+        <v>8.780908176591868</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.96464672425985</v>
+        <v>15.42336177100836</v>
       </c>
       <c r="F20">
-        <v>29.13597111199695</v>
+        <v>39.39155299677725</v>
       </c>
       <c r="G20">
-        <v>2.099725900657864</v>
+        <v>3.667445939403188</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.84549706343117</v>
+        <v>26.20065704423864</v>
       </c>
       <c r="J20">
-        <v>5.764152156797429</v>
+        <v>8.363709457330005</v>
       </c>
       <c r="K20">
-        <v>13.27868633079889</v>
+        <v>10.18341172468299</v>
       </c>
       <c r="L20">
-        <v>9.474417062764894</v>
+        <v>12.56682217371821</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.17354072010168</v>
+        <v>26.01618943450392</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.21941809640705</v>
+        <v>14.15003729259814</v>
       </c>
       <c r="C21">
-        <v>6.539140615062287</v>
+        <v>8.787687156186836</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.30624064665638</v>
+        <v>15.45277079453204</v>
       </c>
       <c r="F21">
-        <v>29.89502386987814</v>
+        <v>39.39605392906342</v>
       </c>
       <c r="G21">
-        <v>2.093924705520349</v>
+        <v>3.665499991548653</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.63724468713283</v>
+        <v>26.08289117314727</v>
       </c>
       <c r="J21">
-        <v>5.788185653403163</v>
+        <v>8.369412808195834</v>
       </c>
       <c r="K21">
-        <v>14.00095361533998</v>
+        <v>10.42504307886327</v>
       </c>
       <c r="L21">
-        <v>9.841937196910409</v>
+        <v>12.61698581959219</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.06952481114422</v>
+        <v>25.90861700578808</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.87911519235233</v>
+        <v>14.37507066209552</v>
       </c>
       <c r="C22">
-        <v>6.56454585449993</v>
+        <v>8.792283024353589</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.52872157396111</v>
+        <v>15.47388435463686</v>
       </c>
       <c r="F22">
-        <v>30.40531415140635</v>
+        <v>39.40671881237529</v>
       </c>
       <c r="G22">
-        <v>2.090190958251587</v>
+        <v>3.664275629164995</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.51478451009294</v>
+        <v>26.00995057467105</v>
       </c>
       <c r="J22">
-        <v>5.804065846955822</v>
+        <v>8.373216034603429</v>
       </c>
       <c r="K22">
-        <v>14.45482132388404</v>
+        <v>10.58069298475222</v>
       </c>
       <c r="L22">
-        <v>10.07836941838179</v>
+        <v>12.65110523981329</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.01794888406714</v>
+        <v>25.84271110981158</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.52965811136232</v>
+        <v>14.25530454846908</v>
       </c>
       <c r="C23">
-        <v>6.5509336832592</v>
+        <v>8.789815132646853</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.41006758909526</v>
+        <v>15.46244373503498</v>
       </c>
       <c r="F23">
-        <v>30.13168376498123</v>
+        <v>39.40032114511806</v>
       </c>
       <c r="G23">
-        <v>2.092178681626599</v>
+        <v>3.664924767709761</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.57884014637539</v>
+        <v>26.04851182457988</v>
       </c>
       <c r="J23">
-        <v>5.795574739178544</v>
+        <v>8.371179328295375</v>
       </c>
       <c r="K23">
-        <v>14.21424403135434</v>
+        <v>10.49784258508166</v>
       </c>
       <c r="L23">
-        <v>9.952542560660353</v>
+        <v>12.63277497933771</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.04391157728111</v>
+        <v>25.87748336175551</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.14792672833535</v>
+        <v>13.79466902530559</v>
       </c>
       <c r="C24">
-        <v>6.500517569275783</v>
+        <v>8.78080020246837</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.95905468406463</v>
+        <v>15.42291333732613</v>
       </c>
       <c r="F24">
-        <v>29.12380934391243</v>
+        <v>39.39161002489676</v>
       </c>
       <c r="G24">
-        <v>2.099821741574301</v>
+        <v>3.667478548464035</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.84911928696541</v>
+        <v>26.20264981119392</v>
       </c>
       <c r="J24">
-        <v>5.763762320237594</v>
+        <v>8.363617535482891</v>
       </c>
       <c r="K24">
-        <v>13.26657401518296</v>
+        <v>10.17942753200115</v>
       </c>
       <c r="L24">
-        <v>9.468350677017433</v>
+        <v>12.5660252510235</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.17550386087369</v>
+        <v>26.01802180947437</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.53116881899265</v>
+        <v>13.28540388882403</v>
       </c>
       <c r="C25">
-        <v>6.448422309917842</v>
+        <v>8.771800816226436</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.47121546550611</v>
+        <v>15.38852452798935</v>
       </c>
       <c r="F25">
-        <v>28.09977764121616</v>
+        <v>39.415451534796</v>
       </c>
       <c r="G25">
-        <v>2.108335542373648</v>
+        <v>3.670438152451468</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>16.19406179889389</v>
+        <v>26.38618785131153</v>
       </c>
       <c r="J25">
-        <v>5.730215839196095</v>
+        <v>8.355794019533679</v>
       </c>
       <c r="K25">
-        <v>12.16626400930705</v>
+        <v>9.827832352540645</v>
       </c>
       <c r="L25">
-        <v>8.931892830347445</v>
+        <v>12.49995168929223</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.38173278116261</v>
+        <v>26.18845518802883</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_255/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_255/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.90258951017826</v>
+        <v>14.22996821806361</v>
       </c>
       <c r="C2">
-        <v>8.765811693360169</v>
+        <v>6.411896026583872</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.3704130336887</v>
+        <v>10.11319301826586</v>
       </c>
       <c r="F2">
-        <v>39.46161740653699</v>
+        <v>27.40209470296871</v>
       </c>
       <c r="G2">
-        <v>3.6727954155914</v>
+        <v>2.114859800728123</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.5361954024308</v>
+        <v>16.48887509324687</v>
       </c>
       <c r="J2">
-        <v>8.350327027231986</v>
+        <v>5.706196647908749</v>
       </c>
       <c r="K2">
-        <v>9.56381890483544</v>
+        <v>11.28914179052522</v>
       </c>
       <c r="L2">
-        <v>12.45658811191793</v>
+        <v>8.527240823632882</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>26.33011577458971</v>
+        <v>16.58249677032114</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.63982079858845</v>
+        <v>13.27798611779798</v>
       </c>
       <c r="C3">
-        <v>8.76215732473</v>
+        <v>6.388225987620694</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.36268560497533</v>
+        <v>9.872609265122541</v>
       </c>
       <c r="F3">
-        <v>39.51074005399009</v>
+        <v>26.96522827960225</v>
       </c>
       <c r="G3">
-        <v>3.67450500554647</v>
+        <v>2.119451812584368</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>26.64713912378761</v>
+        <v>16.71189991870065</v>
       </c>
       <c r="J3">
-        <v>8.346808597540042</v>
+        <v>5.690352680984667</v>
       </c>
       <c r="K3">
-        <v>9.382713505093147</v>
+        <v>10.65335432041046</v>
       </c>
       <c r="L3">
-        <v>12.43058558535039</v>
+        <v>8.248543120294965</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.43619226736916</v>
+        <v>16.74611139274928</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.4773962439341</v>
+        <v>12.6585330103647</v>
       </c>
       <c r="C4">
-        <v>8.76011552084781</v>
+        <v>6.374210583906462</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.36019872198642</v>
+        <v>9.726376717525445</v>
       </c>
       <c r="F4">
-        <v>39.54968857524139</v>
+        <v>26.7149172961234</v>
       </c>
       <c r="G4">
-        <v>3.675610278513336</v>
+        <v>2.122358817394006</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.71983979859319</v>
+        <v>16.85963074345211</v>
       </c>
       <c r="J4">
-        <v>8.344741556295403</v>
+        <v>5.680841521847292</v>
       </c>
       <c r="K4">
-        <v>9.270802397242415</v>
+        <v>10.24284654841106</v>
       </c>
       <c r="L4">
-        <v>12.4163171672956</v>
+        <v>8.075829212238602</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.50628634793635</v>
+        <v>16.85924967075448</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.41102263467561</v>
+        <v>12.39726985731185</v>
       </c>
       <c r="C5">
-        <v>8.759334664144539</v>
+        <v>6.368627340751419</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.35975524528305</v>
+        <v>9.667234120977671</v>
       </c>
       <c r="F5">
-        <v>39.56776805884027</v>
+        <v>26.61743915801313</v>
       </c>
       <c r="G5">
-        <v>3.676074704634876</v>
+        <v>2.123565919449301</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.7506180181749</v>
+        <v>16.92245482424915</v>
       </c>
       <c r="J5">
-        <v>8.343922888099225</v>
+        <v>5.677020739932479</v>
       </c>
       <c r="K5">
-        <v>9.225075879816231</v>
+        <v>10.0705566736816</v>
       </c>
       <c r="L5">
-        <v>12.41093350547315</v>
+        <v>8.005147164120567</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.53609729564045</v>
+        <v>16.90841375042394</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.39999284297545</v>
+        <v>12.35335258567678</v>
       </c>
       <c r="C6">
-        <v>8.759208107267304</v>
+        <v>6.367707928189667</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.35971608957903</v>
+        <v>9.657442815834424</v>
       </c>
       <c r="F6">
-        <v>39.57090340838003</v>
+        <v>26.6015265534705</v>
       </c>
       <c r="G6">
-        <v>3.676152670178733</v>
+        <v>2.123767728695902</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.75579830981956</v>
+        <v>16.9330425774375</v>
       </c>
       <c r="J6">
-        <v>8.343788384446594</v>
+        <v>5.67638964332945</v>
       </c>
       <c r="K6">
-        <v>9.21747736460501</v>
+        <v>10.04164783350645</v>
       </c>
       <c r="L6">
-        <v>12.4100656864002</v>
+        <v>7.993395447544306</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.54112267404948</v>
+        <v>16.91675855255388</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.47650173403518</v>
+        <v>12.65504534213143</v>
       </c>
       <c r="C7">
-        <v>8.760104782121914</v>
+        <v>6.374134770163163</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.36019043066204</v>
+        <v>9.725577185127058</v>
       </c>
       <c r="F7">
-        <v>39.54992346592975</v>
+        <v>26.71358433505954</v>
       </c>
       <c r="G7">
-        <v>3.675616485109508</v>
+        <v>2.122375005184953</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.72025021927842</v>
+        <v>16.86046750771936</v>
       </c>
       <c r="J7">
-        <v>8.34473041934605</v>
+        <v>5.680789769745033</v>
       </c>
       <c r="K7">
-        <v>9.270186130234379</v>
+        <v>10.24054316162935</v>
       </c>
       <c r="L7">
-        <v>12.41624281178436</v>
+        <v>8.074877044511476</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.50668334072545</v>
+        <v>16.85990049267059</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.81226381200265</v>
+        <v>13.90894632558591</v>
       </c>
       <c r="C8">
-        <v>8.764509983572252</v>
+        <v>6.403625719915117</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.36728140535745</v>
+        <v>10.02997535676904</v>
       </c>
       <c r="F8">
-        <v>39.47673021596179</v>
+        <v>27.24775741763847</v>
       </c>
       <c r="G8">
-        <v>3.673373372913299</v>
+        <v>2.116425259305283</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>26.57349819153129</v>
+        <v>16.56347682587923</v>
       </c>
       <c r="J8">
-        <v>8.349094635771017</v>
+        <v>5.700688897378205</v>
       </c>
       <c r="K8">
-        <v>9.501555275493599</v>
+        <v>11.07412999508868</v>
       </c>
       <c r="L8">
-        <v>12.44727269320262</v>
+        <v>8.431534402382301</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.36566042281178</v>
+        <v>16.63620011357646</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.45836709505537</v>
+        <v>16.09284609908454</v>
       </c>
       <c r="C9">
-        <v>8.774734248425704</v>
+        <v>6.465677842165229</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.39899580354193</v>
+        <v>10.63552903305483</v>
       </c>
       <c r="F9">
-        <v>39.40297621254455</v>
+        <v>28.43610646994507</v>
       </c>
       <c r="G9">
-        <v>3.669413660258605</v>
+        <v>2.105429480622984</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>26.32205378174618</v>
+        <v>16.07120368450558</v>
       </c>
       <c r="J9">
-        <v>8.358384274812641</v>
+        <v>5.741411558890432</v>
       </c>
       <c r="K9">
-        <v>9.947195627131135</v>
+        <v>12.54733879635689</v>
       </c>
       <c r="L9">
-        <v>12.52139979916696</v>
+        <v>9.114287493824676</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>26.12853024589825</v>
+        <v>16.30425374509473</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.92079574732447</v>
+        <v>17.53280203835159</v>
       </c>
       <c r="C10">
-        <v>8.783190692005906</v>
+        <v>6.514014793394709</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.43299920550884</v>
+        <v>11.08167674044812</v>
       </c>
       <c r="F10">
-        <v>39.39136150489407</v>
+        <v>29.39250296430627</v>
       </c>
       <c r="G10">
-        <v>3.666769349698653</v>
+        <v>2.09772719316791</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>26.15945403648488</v>
+        <v>15.7712976180842</v>
       </c>
       <c r="J10">
-        <v>8.365644102494374</v>
+        <v>5.772337522072088</v>
       </c>
       <c r="K10">
-        <v>10.26657523131038</v>
+        <v>13.52993434949605</v>
       </c>
       <c r="L10">
-        <v>12.58368560823891</v>
+        <v>9.600990698179219</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.97839214309356</v>
+        <v>16.13441490774462</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.12757740055507</v>
+        <v>18.15283145473871</v>
       </c>
       <c r="C11">
-        <v>8.787238199909526</v>
+        <v>6.536645201613826</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.45075437707397</v>
+        <v>11.28414492604274</v>
       </c>
       <c r="F11">
-        <v>39.39531179593273</v>
+        <v>29.84500354935505</v>
       </c>
       <c r="G11">
-        <v>3.665623317827438</v>
+        <v>2.094297180182173</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>26.09028761069463</v>
+        <v>15.64996153972354</v>
       </c>
       <c r="J11">
-        <v>8.36903879806181</v>
+        <v>5.786618150705879</v>
       </c>
       <c r="K11">
-        <v>10.40951308248613</v>
+        <v>13.95521184070402</v>
       </c>
       <c r="L11">
-        <v>12.61365684661879</v>
+        <v>9.818336123077025</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.9153313110757</v>
+        <v>16.07532914546659</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.20529420850412</v>
+        <v>18.38264239625124</v>
       </c>
       <c r="C12">
-        <v>8.788799317163992</v>
+        <v>6.545311045003463</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.45780298257003</v>
+        <v>11.36068699570751</v>
       </c>
       <c r="F12">
-        <v>39.39813302147001</v>
+        <v>30.01879773811034</v>
       </c>
       <c r="G12">
-        <v>3.665197480232642</v>
+        <v>2.093008260268549</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>26.0647865020483</v>
+        <v>15.60634105004639</v>
       </c>
       <c r="J12">
-        <v>8.370337311871893</v>
+        <v>5.792055648742917</v>
       </c>
       <c r="K12">
-        <v>10.4632545554808</v>
+        <v>14.11313589104847</v>
       </c>
       <c r="L12">
-        <v>12.62523577199169</v>
+        <v>9.89999807851752</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.89220611855012</v>
+        <v>16.05575329888867</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.18858370668239</v>
+        <v>18.33336913843628</v>
       </c>
       <c r="C13">
-        <v>8.78846184589869</v>
+        <v>6.543440354869904</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.45627054224488</v>
+        <v>11.34420886257694</v>
       </c>
       <c r="F13">
-        <v>39.39746652482999</v>
+        <v>29.98126045605694</v>
       </c>
       <c r="G13">
-        <v>3.665288830578938</v>
+        <v>2.093285420584691</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>26.07024789649609</v>
+        <v>15.61562938260156</v>
       </c>
       <c r="J13">
-        <v>8.370057078587067</v>
+        <v>5.790883276855496</v>
       </c>
       <c r="K13">
-        <v>10.45169827086404</v>
+        <v>14.07926273747468</v>
       </c>
       <c r="L13">
-        <v>12.62273193500802</v>
+        <v>9.882440110135615</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.89715296016968</v>
+        <v>16.05984179928632</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.13398336878862</v>
+        <v>18.17183764481082</v>
       </c>
       <c r="C14">
-        <v>8.787366067019956</v>
+        <v>6.537356193740619</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.45132777676773</v>
+        <v>11.29044497197126</v>
       </c>
       <c r="F14">
-        <v>39.3955173556752</v>
+        <v>29.85925312609755</v>
       </c>
       <c r="G14">
-        <v>3.665588121002057</v>
+        <v>2.094190944447872</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>26.08817577409135</v>
+        <v>15.64632527878723</v>
       </c>
       <c r="J14">
-        <v>8.369145368075358</v>
+        <v>5.787064905703863</v>
       </c>
       <c r="K14">
-        <v>10.41394242721775</v>
+        <v>13.96826682311718</v>
       </c>
       <c r="L14">
-        <v>12.61460488787368</v>
+        <v>9.825067673181314</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.91341365669565</v>
+        <v>16.07366144919602</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.10046058812011</v>
+        <v>18.07224793569968</v>
       </c>
       <c r="C15">
-        <v>8.786698558136116</v>
+        <v>6.533642121286723</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.44834241348843</v>
+        <v>11.25749470284734</v>
       </c>
       <c r="F15">
-        <v>39.39449594160066</v>
+        <v>29.7848362376184</v>
       </c>
       <c r="G15">
-        <v>3.66577250391156</v>
+        <v>2.09474687966186</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>26.09924707904856</v>
+        <v>15.66543529618358</v>
       </c>
       <c r="J15">
-        <v>8.368588607089121</v>
+        <v>5.78472989120501</v>
       </c>
       <c r="K15">
-        <v>10.39076423552381</v>
+        <v>13.89987259218113</v>
       </c>
       <c r="L15">
-        <v>12.60965653944958</v>
+        <v>9.789840197532124</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.92347211257658</v>
+        <v>16.08249648970245</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.90720377493565</v>
+        <v>17.49158168953045</v>
       </c>
       <c r="C16">
-        <v>8.782930177784575</v>
+        <v>6.512549081071166</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.4318845667513</v>
+        <v>11.06843006883021</v>
       </c>
       <c r="F16">
-        <v>39.3912889621068</v>
+        <v>29.36327621923277</v>
       </c>
       <c r="G16">
-        <v>3.666845386751537</v>
+        <v>2.097952782023943</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>26.16407086146099</v>
+        <v>15.77954400406915</v>
       </c>
       <c r="J16">
-        <v>8.365424085550883</v>
+        <v>5.771408454164552</v>
       </c>
       <c r="K16">
-        <v>10.25718244943611</v>
+        <v>13.50170465884413</v>
       </c>
       <c r="L16">
-        <v>12.58175935776909</v>
+        <v>9.586699806471927</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.98261883241341</v>
+        <v>16.13865765661582</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.78767736084741</v>
+        <v>17.12643197698661</v>
       </c>
       <c r="C17">
-        <v>8.780669474921366</v>
+        <v>6.499776193733261</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.42237134876687</v>
+        <v>10.95227719820924</v>
       </c>
       <c r="F17">
-        <v>39.39168512806954</v>
+        <v>29.10908138295693</v>
       </c>
       <c r="G17">
-        <v>3.667518105500418</v>
+        <v>2.09993794299577</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>26.20506803236177</v>
+        <v>15.85351888390058</v>
       </c>
       <c r="J17">
-        <v>8.363506191869613</v>
+        <v>5.763290000863126</v>
       </c>
       <c r="K17">
-        <v>10.1745974438984</v>
+        <v>13.25188056840484</v>
       </c>
       <c r="L17">
-        <v>12.56506049567223</v>
+        <v>9.46099599718908</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>26.02024592817591</v>
+        <v>16.17789473672066</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.71859604003634</v>
+        <v>16.91310852816539</v>
       </c>
       <c r="C18">
-        <v>8.77938808890422</v>
+        <v>6.492489705692547</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.4171150867921</v>
+        <v>10.88542648108101</v>
       </c>
       <c r="F18">
-        <v>39.39278233582862</v>
+        <v>28.9645198793885</v>
       </c>
       <c r="G18">
-        <v>3.667910391507417</v>
+        <v>2.101086742964241</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>26.2291003920303</v>
+        <v>15.89747772436723</v>
       </c>
       <c r="J18">
-        <v>8.362411759353019</v>
+        <v>5.758640509445883</v>
       </c>
       <c r="K18">
-        <v>10.1268782866441</v>
+        <v>13.10614424869274</v>
       </c>
       <c r="L18">
-        <v>12.55561021726667</v>
+        <v>9.388315445564519</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>26.04238095515007</v>
+        <v>16.20216194798385</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.69515139339704</v>
+        <v>16.84031264221371</v>
       </c>
       <c r="C19">
-        <v>8.778957494753948</v>
+        <v>6.490032842335997</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.41537252710046</v>
+        <v>10.86278651611956</v>
       </c>
       <c r="F19">
-        <v>39.39330320268728</v>
+        <v>28.91585827640696</v>
       </c>
       <c r="G19">
-        <v>3.668044133903807</v>
+        <v>2.101476926538989</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>26.23731493591138</v>
+        <v>15.91259912029185</v>
       </c>
       <c r="J19">
-        <v>8.362042702854238</v>
+        <v>5.757069734669754</v>
       </c>
       <c r="K19">
-        <v>10.11068539411916</v>
+        <v>13.05644939647491</v>
       </c>
       <c r="L19">
-        <v>12.55243722188811</v>
+        <v>9.363643880490145</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>26.04996011167111</v>
+        <v>16.21066472557756</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.80043614208367</v>
+        <v>17.16564383255572</v>
       </c>
       <c r="C20">
-        <v>8.780908176591868</v>
+        <v>6.501129638189163</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.42336177100836</v>
+        <v>10.96464672425991</v>
       </c>
       <c r="F20">
-        <v>39.39155299677725</v>
+        <v>29.13597111199704</v>
       </c>
       <c r="G20">
-        <v>3.667445939403188</v>
+        <v>2.099725900657595</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>26.20065704423864</v>
+        <v>15.84549706343127</v>
       </c>
       <c r="J20">
-        <v>8.363709457330005</v>
+        <v>5.764152156797462</v>
       </c>
       <c r="K20">
-        <v>10.18341172468299</v>
+        <v>13.27868633079889</v>
       </c>
       <c r="L20">
-        <v>12.56682217371821</v>
+        <v>9.4744170627649</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>26.01618943450392</v>
+        <v>16.17354072010175</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.15003729259814</v>
+        <v>18.21941809640705</v>
       </c>
       <c r="C21">
-        <v>8.787687156186836</v>
+        <v>6.539140615062281</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.45277079453204</v>
+        <v>11.30624064665636</v>
       </c>
       <c r="F21">
-        <v>39.39605392906342</v>
+        <v>29.89502386987816</v>
       </c>
       <c r="G21">
-        <v>3.665499991548653</v>
+        <v>2.093924705520616</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>26.08289117314727</v>
+        <v>15.63724468713284</v>
       </c>
       <c r="J21">
-        <v>8.369412808195834</v>
+        <v>5.788185653403128</v>
       </c>
       <c r="K21">
-        <v>10.42504307886327</v>
+        <v>14.00095361533998</v>
       </c>
       <c r="L21">
-        <v>12.61698581959219</v>
+        <v>9.841937196910381</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.90861700578808</v>
+        <v>16.06952481114423</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.37507066209552</v>
+        <v>18.87911519235236</v>
       </c>
       <c r="C22">
-        <v>8.792283024353589</v>
+        <v>6.564545854499787</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.47388435463686</v>
+        <v>11.52872157396109</v>
       </c>
       <c r="F22">
-        <v>39.40671881237529</v>
+        <v>30.40531415140638</v>
       </c>
       <c r="G22">
-        <v>3.664275629164995</v>
+        <v>2.090190958251451</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>26.00995057467105</v>
+        <v>15.51478451009294</v>
       </c>
       <c r="J22">
-        <v>8.373216034603429</v>
+        <v>5.804065846955758</v>
       </c>
       <c r="K22">
-        <v>10.58069298475222</v>
+        <v>14.45482132388402</v>
       </c>
       <c r="L22">
-        <v>12.65110523981329</v>
+        <v>10.07836941838179</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.84271110981158</v>
+        <v>16.01794888406716</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.25530454846908</v>
+        <v>18.52965811136233</v>
       </c>
       <c r="C23">
-        <v>8.789815132646853</v>
+        <v>6.55093368325945</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.46244373503498</v>
+        <v>11.4100675890954</v>
       </c>
       <c r="F23">
-        <v>39.40032114511806</v>
+        <v>30.1316837649813</v>
       </c>
       <c r="G23">
-        <v>3.664924767709761</v>
+        <v>2.092178681626597</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>26.04851182457988</v>
+        <v>15.57884014637548</v>
       </c>
       <c r="J23">
-        <v>8.371179328295375</v>
+        <v>5.795574739178642</v>
       </c>
       <c r="K23">
-        <v>10.49784258508166</v>
+        <v>14.21424403135442</v>
       </c>
       <c r="L23">
-        <v>12.63277497933771</v>
+        <v>9.952542560660373</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.87748336175551</v>
+        <v>16.04391157728113</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.79466902530559</v>
+        <v>17.14792672833538</v>
       </c>
       <c r="C24">
-        <v>8.78080020246837</v>
+        <v>6.500517569275398</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.42291333732613</v>
+        <v>10.95905468406449</v>
       </c>
       <c r="F24">
-        <v>39.39161002489676</v>
+        <v>29.12380934391234</v>
       </c>
       <c r="G24">
-        <v>3.667478548464035</v>
+        <v>2.099821741574301</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>26.20264981119392</v>
+        <v>15.84911928696526</v>
       </c>
       <c r="J24">
-        <v>8.363617535482891</v>
+        <v>5.763762320237462</v>
       </c>
       <c r="K24">
-        <v>10.17942753200115</v>
+        <v>13.26657401518295</v>
       </c>
       <c r="L24">
-        <v>12.5660252510235</v>
+        <v>9.468350677017371</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>26.01802180947437</v>
+        <v>16.17550386087364</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.28540388882403</v>
+        <v>15.5311688189927</v>
       </c>
       <c r="C25">
-        <v>8.771800816226436</v>
+        <v>6.448422309917581</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.38852452798935</v>
+        <v>10.47121546550607</v>
       </c>
       <c r="F25">
-        <v>39.415451534796</v>
+        <v>28.09977764121613</v>
       </c>
       <c r="G25">
-        <v>3.670438152451468</v>
+        <v>2.108335542373514</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>26.38618785131153</v>
+        <v>16.19406179889382</v>
       </c>
       <c r="J25">
-        <v>8.355794019533679</v>
+        <v>5.730215839196126</v>
       </c>
       <c r="K25">
-        <v>9.827832352540645</v>
+        <v>12.16626400930709</v>
       </c>
       <c r="L25">
-        <v>12.49995168929223</v>
+        <v>8.93189283034747</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>26.18845518802883</v>
+        <v>16.38173278116258</v>
       </c>
     </row>
   </sheetData>
